--- a/UploadMicroservice/sample_stock_data.xlsx
+++ b/UploadMicroservice/sample_stock_data.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\c2dotnet09\source\repos\StockMarketChartingCaseStudy\UploadMicroservice\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="36" windowWidth="22980" windowHeight="9552"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="22980" windowHeight="9555"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
   <si>
     <t>Company Code</t>
   </si>
@@ -27,9 +32,6 @@
     <t>BSE</t>
   </si>
   <si>
-    <t>500112 </t>
-  </si>
-  <si>
     <t>Price Per Share(in Rs)</t>
   </si>
   <si>
@@ -40,12 +42,6 @@
   </si>
   <si>
     <t xml:space="preserve">Date </t>
-  </si>
-  <si>
-    <t>Note that this section is just for providing more details, and does not exist in actual sheet which need to be imported
-1. 500112 is a Company Code of State Bank  of India
-2. Generally a single Excel sheet has data of a single Company.
-3. Each company may have multiple excel sheets, which need to be imported, as and when its gets generated.</t>
   </si>
   <si>
     <t xml:space="preserve">  10:35:00</t>
@@ -93,7 +89,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -101,120 +97,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -224,6 +113,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -272,7 +164,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -307,7 +199,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -519,18 +411,18 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.5703125" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -538,17 +430,17 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>3</v>
       </c>
       <c r="B2" t="s">
@@ -561,11 +453,11 @@
         <v>43624</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>3</v>
       </c>
       <c r="B3" t="s">
@@ -578,11 +470,11 @@
         <v>43624</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
@@ -595,11 +487,11 @@
         <v>43624</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
@@ -612,11 +504,11 @@
         <v>43624</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>3</v>
       </c>
       <c r="B6" t="s">
@@ -629,11 +521,11 @@
         <v>43624</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>3</v>
       </c>
       <c r="B7" t="s">
@@ -646,11 +538,11 @@
         <v>43624</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>3</v>
       </c>
       <c r="B8" t="s">
@@ -663,11 +555,11 @@
         <v>43624</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>3</v>
       </c>
       <c r="B9" t="s">
@@ -680,11 +572,11 @@
         <v>43624</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>3</v>
       </c>
       <c r="B10" t="s">
@@ -697,50 +589,12 @@
         <v>43624</v>
       </c>
       <c r="E10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="5"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="7"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="5"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="7"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="5"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="7"/>
-    </row>
-    <row r="17" spans="1:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="8"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="10"/>
-    </row>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="26.45" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A13:E17"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -752,7 +606,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -764,7 +618,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/UploadMicroservice/sample_stock_data.xlsx
+++ b/UploadMicroservice/sample_stock_data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="22980" windowHeight="9555"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="10410" windowHeight="4065"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,15 +21,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Company Code</t>
   </si>
   <si>
     <t>Stock Exchange</t>
-  </si>
-  <si>
-    <t>BSE</t>
   </si>
   <si>
     <t>Price Per Share(in Rs)</t>
@@ -411,7 +408,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -430,21 +427,21 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
-        <v>2</v>
+      <c r="B2">
+        <v>1</v>
       </c>
       <c r="C2">
         <v>356.23</v>
@@ -453,15 +450,15 @@
         <v>43624</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
-        <v>2</v>
+      <c r="B3">
+        <v>1</v>
       </c>
       <c r="C3">
         <v>361.31</v>
@@ -470,15 +467,15 @@
         <v>43624</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>2</v>
+      <c r="B4">
+        <v>1</v>
       </c>
       <c r="C4">
         <v>358.12</v>
@@ -487,15 +484,15 @@
         <v>43624</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>2</v>
+      <c r="B5">
+        <v>1</v>
       </c>
       <c r="C5">
         <v>357.09</v>
@@ -504,15 +501,15 @@
         <v>43624</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
-      <c r="B6" t="s">
-        <v>2</v>
+      <c r="B6">
+        <v>1</v>
       </c>
       <c r="C6">
         <v>353.62</v>
@@ -521,15 +518,15 @@
         <v>43624</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3</v>
       </c>
-      <c r="B7" t="s">
-        <v>2</v>
+      <c r="B7">
+        <v>1</v>
       </c>
       <c r="C7">
         <v>349.56</v>
@@ -538,15 +535,15 @@
         <v>43624</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3</v>
       </c>
-      <c r="B8" t="s">
-        <v>2</v>
+      <c r="B8">
+        <v>1</v>
       </c>
       <c r="C8">
         <v>351.43</v>
@@ -555,15 +552,15 @@
         <v>43624</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>3</v>
       </c>
-      <c r="B9" t="s">
-        <v>2</v>
+      <c r="B9">
+        <v>1</v>
       </c>
       <c r="C9">
         <v>350.12</v>
@@ -572,15 +569,15 @@
         <v>43624</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>3</v>
       </c>
-      <c r="B10" t="s">
-        <v>2</v>
+      <c r="B10">
+        <v>1</v>
       </c>
       <c r="C10">
         <v>348.91</v>
@@ -589,7 +586,7 @@
         <v>43624</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
